--- a/branches/master/StructureDefinition-covid19-test-requested.xlsx
+++ b/branches/master/StructureDefinition-covid19-test-requested.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T11:38:34+00:00</t>
+    <t>2022-08-31T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-test-requested.xlsx
+++ b/branches/master/StructureDefinition-covid19-test-requested.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:33:23+00:00</t>
+    <t>2022-08-31T09:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-test-requested.xlsx
+++ b/branches/master/StructureDefinition-covid19-test-requested.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:56:11+00:00</t>
+    <t>2022-08-31T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-test-requested.xlsx
+++ b/branches/master/StructureDefinition-covid19-test-requested.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:36:06+00:00</t>
+    <t>2022-08-31T12:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-test-requested.xlsx
+++ b/branches/master/StructureDefinition-covid19-test-requested.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:42:43+00:00</t>
+    <t>2022-08-31T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-test-requested.xlsx
+++ b/branches/master/StructureDefinition-covid19-test-requested.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:41:46+00:00</t>
+    <t>2022-08-31T20:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
